--- a/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.830344684381657</v>
+        <v>2.590198406397292</v>
       </c>
       <c r="C2">
-        <v>1.735674810291471</v>
+        <v>0.6479273233222784</v>
       </c>
       <c r="D2">
-        <v>0.0377709043536143</v>
+        <v>0.334477345342151</v>
       </c>
       <c r="E2">
-        <v>1.490596152403953</v>
+        <v>1.458982960119599</v>
       </c>
       <c r="F2">
-        <v>2.638946266305766</v>
+        <v>6.574029785898148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.227746585242073</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7261000896965015</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +456,31 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.290864317304397</v>
+        <v>2.207838415520882</v>
       </c>
       <c r="C3">
-        <v>1.486446147959043</v>
+        <v>0.5510599346676202</v>
       </c>
       <c r="D3">
-        <v>0.03473756204498812</v>
+        <v>0.2937554634179236</v>
       </c>
       <c r="E3">
-        <v>1.265432022405562</v>
+        <v>1.237111862226584</v>
       </c>
       <c r="F3">
-        <v>2.297758040415161</v>
+        <v>5.721414890612806</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.089896952267651</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6180521439203162</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,25 +503,31 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.966128585842284</v>
+        <v>1.980496020506507</v>
       </c>
       <c r="C4">
-        <v>1.337123485181962</v>
+        <v>0.4936200238269919</v>
       </c>
       <c r="D4">
-        <v>0.03311810716898833</v>
+        <v>0.2695533610836947</v>
       </c>
       <c r="E4">
-        <v>1.13220829742113</v>
+        <v>1.106125853166347</v>
       </c>
       <c r="F4">
-        <v>2.097034792614409</v>
+        <v>5.2139823386633</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.009767199303852</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5538508789427894</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,25 +550,31 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.835141837716662</v>
+        <v>1.889409610457363</v>
       </c>
       <c r="C5">
-        <v>1.277040680578978</v>
+        <v>0.47063247506577</v>
       </c>
       <c r="D5">
-        <v>0.03251073148072692</v>
+        <v>0.2598572217360697</v>
       </c>
       <c r="E5">
-        <v>1.078959463538041</v>
+        <v>1.053828202328063</v>
       </c>
       <c r="F5">
-        <v>2.017132747988356</v>
+        <v>5.010580822519614</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9780970352116327</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5281350756201064</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,25 +597,31 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.813465065147852</v>
+        <v>1.874370589218927</v>
       </c>
       <c r="C6">
-        <v>1.267105927816488</v>
+        <v>0.4668383063685724</v>
       </c>
       <c r="D6">
-        <v>0.03241282469299733</v>
+        <v>0.2582562996469449</v>
       </c>
       <c r="E6">
-        <v>1.070174481158233</v>
+        <v>1.045203180118705</v>
       </c>
       <c r="F6">
-        <v>2.003971139113716</v>
+        <v>4.976992714888866</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9728935639845844</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5238895350839954</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,25 +644,31 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.964356961297028</v>
+        <v>1.979261669945913</v>
       </c>
       <c r="C7">
-        <v>1.336310281782914</v>
+        <v>0.4933084189191845</v>
       </c>
       <c r="D7">
-        <v>0.03310971347723779</v>
+        <v>0.2694219646754306</v>
       </c>
       <c r="E7">
-        <v>1.131486222133901</v>
+        <v>1.105416463376116</v>
       </c>
       <c r="F7">
-        <v>2.095949917841494</v>
+        <v>5.211226313251814</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.0093362885343</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5535023693865782</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,25 +691,31 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.642793834933968</v>
+        <v>2.45661744137351</v>
       </c>
       <c r="C8">
-        <v>1.648865808425285</v>
+        <v>0.6140443638893203</v>
       </c>
       <c r="D8">
-        <v>0.03666901972493974</v>
+        <v>0.3202474162061293</v>
       </c>
       <c r="E8">
-        <v>1.411770582084785</v>
+        <v>1.38123750116533</v>
       </c>
       <c r="F8">
-        <v>2.519285006902919</v>
+        <v>6.276283657748422</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.179182805063107</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6883413906209555</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,25 +738,31 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.040383173937528</v>
+        <v>3.468559522212161</v>
       </c>
       <c r="C9">
-        <v>2.299998144014239</v>
+        <v>0.8720575201977567</v>
       </c>
       <c r="D9">
-        <v>0.04604197080041672</v>
+        <v>0.4281727001387026</v>
       </c>
       <c r="E9">
-        <v>2.013554167686536</v>
+        <v>1.976993192422057</v>
       </c>
       <c r="F9">
-        <v>3.435539985157561</v>
+        <v>8.528138435484919</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.556066102051048</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9747439177941857</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,25 +785,31 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.134723897660649</v>
+        <v>4.287975245833024</v>
       </c>
       <c r="C10">
-        <v>2.816847809736885</v>
+        <v>1.0836135091605</v>
       </c>
       <c r="D10">
-        <v>0.05520182449783562</v>
+        <v>0.5158130609778198</v>
       </c>
       <c r="E10">
-        <v>2.509165620931697</v>
+        <v>2.472129846257346</v>
       </c>
       <c r="F10">
-        <v>4.189381778562506</v>
+        <v>10.34426394714154</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.873353844465001</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.207374115694321</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,25 +832,31 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.655070189299011</v>
+        <v>4.686371107352272</v>
       </c>
       <c r="C11">
-        <v>3.064844105288046</v>
+        <v>1.187454200869411</v>
       </c>
       <c r="D11">
-        <v>0.06011199684782298</v>
+        <v>0.5585076088654262</v>
       </c>
       <c r="E11">
-        <v>2.752974153250634</v>
+        <v>2.717533875335491</v>
       </c>
       <c r="F11">
-        <v>4.558146871179588</v>
+        <v>11.22445405503584</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.030500168985</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.320746364603238</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,25 +879,31 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.856211459186738</v>
+        <v>4.841965165293175</v>
       </c>
       <c r="C12">
-        <v>3.16110619738248</v>
+        <v>1.228196554735973</v>
       </c>
       <c r="D12">
-        <v>0.0621066002021422</v>
+        <v>0.5751966490786913</v>
       </c>
       <c r="E12">
-        <v>2.848711132823922</v>
+        <v>2.814273662961511</v>
       </c>
       <c r="F12">
-        <v>4.70241759461814</v>
+        <v>11.56766714808703</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.092293360104605</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.365075223394996</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,25 +926,31 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.812693763659354</v>
+        <v>4.808224791069506</v>
       </c>
       <c r="C13">
-        <v>3.140260455846942</v>
+        <v>1.219352478929977</v>
       </c>
       <c r="D13">
-        <v>0.0616704717935761</v>
+        <v>0.5715769647282229</v>
       </c>
       <c r="E13">
-        <v>2.827925857080061</v>
+        <v>2.793251683630999</v>
       </c>
       <c r="F13">
-        <v>4.671123410480931</v>
+        <v>11.49326877448715</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.078875140108437</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.355460066321271</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,25 +973,31 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.671530371164408</v>
+        <v>4.699070025843298</v>
       </c>
       <c r="C14">
-        <v>3.072713184747784</v>
+        <v>1.190775399168899</v>
       </c>
       <c r="D14">
-        <v>0.06027319223011318</v>
+        <v>0.5598693922877658</v>
       </c>
       <c r="E14">
-        <v>2.76077684745249</v>
+        <v>2.725410029482589</v>
       </c>
       <c r="F14">
-        <v>4.569917299956529</v>
+        <v>11.2524774452815</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.035535180350436</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.324363197557446</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,25 +1020,31 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.585626559101001</v>
+        <v>4.63286184377688</v>
       </c>
       <c r="C15">
-        <v>3.031661810958042</v>
+        <v>1.173467480470094</v>
       </c>
       <c r="D15">
-        <v>0.05943590832747248</v>
+        <v>0.5527700781981366</v>
       </c>
       <c r="E15">
-        <v>2.720117363316277</v>
+        <v>2.684383515780723</v>
       </c>
       <c r="F15">
-        <v>4.508559323568591</v>
+        <v>11.10634951643482</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.009300917029549</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.305508287014618</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,25 +1067,31 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.101239883710946</v>
+        <v>4.262537549784781</v>
       </c>
       <c r="C16">
-        <v>2.800939633626399</v>
+        <v>1.077006023983699</v>
       </c>
       <c r="D16">
-        <v>0.05489813717227321</v>
+        <v>0.5130888567858563</v>
       </c>
       <c r="E16">
-        <v>2.493662526455978</v>
+        <v>2.456569226845218</v>
       </c>
       <c r="F16">
-        <v>4.16587489291345</v>
+        <v>10.28799778903874</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.863377140603617</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.200141487057124</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,25 +1114,31 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.810400236485634</v>
+        <v>4.042575696265658</v>
       </c>
       <c r="C17">
-        <v>2.663014552727304</v>
+        <v>1.019980916030391</v>
       </c>
       <c r="D17">
-        <v>0.05232256176737593</v>
+        <v>0.4895418349746308</v>
       </c>
       <c r="E17">
-        <v>2.359923708516135</v>
+        <v>2.322538887657558</v>
       </c>
       <c r="F17">
-        <v>3.962847607411334</v>
+        <v>9.801144767401723</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.777420850364521</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.137630504492947</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,25 +1161,31 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.64517518024121</v>
+        <v>3.918395951757077</v>
       </c>
       <c r="C18">
-        <v>2.584859705548922</v>
+        <v>0.9878729785552309</v>
       </c>
       <c r="D18">
-        <v>0.05090904374613103</v>
+        <v>0.4762557996074577</v>
       </c>
       <c r="E18">
-        <v>2.284671043557111</v>
+        <v>2.247277866009426</v>
       </c>
       <c r="F18">
-        <v>3.848437912177928</v>
+        <v>9.526048413651324</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.729154855148622</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.10236324990997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,25 +1208,31 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.589563503421687</v>
+        <v>3.876724979036396</v>
       </c>
       <c r="C19">
-        <v>2.558586583385193</v>
+        <v>0.9771120820507804</v>
       </c>
       <c r="D19">
-        <v>0.0504413688429608</v>
+        <v>0.4717986168416815</v>
       </c>
       <c r="E19">
-        <v>2.259458592101595</v>
+        <v>2.22208677318288</v>
       </c>
       <c r="F19">
-        <v>3.810082928830496</v>
+        <v>9.433696197072095</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.713002645104382</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.090532326992999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,25 +1255,31 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.84114204964186</v>
+        <v>4.065742573090688</v>
       </c>
       <c r="C20">
-        <v>2.677571985367138</v>
+        <v>1.025977716529212</v>
       </c>
       <c r="D20">
-        <v>0.05258952966983088</v>
+        <v>0.4920210646002374</v>
       </c>
       <c r="E20">
-        <v>2.373982658503067</v>
+        <v>2.336611592527873</v>
       </c>
       <c r="F20">
-        <v>3.984209422164696</v>
+        <v>9.852447405469775</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.786446699069757</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.144211784978538</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,25 +1302,31 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.712874327217833</v>
+        <v>4.730993170775719</v>
       </c>
       <c r="C21">
-        <v>3.092484997247539</v>
+        <v>1.199127523131665</v>
       </c>
       <c r="D21">
-        <v>0.06067967029463972</v>
+        <v>0.563292947921326</v>
       </c>
       <c r="E21">
-        <v>2.780400213021167</v>
+        <v>2.745224557723631</v>
       </c>
       <c r="F21">
-        <v>4.599509952761565</v>
+        <v>11.32291476909609</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.048199047773537</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.333456221749827</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,25 +1349,31 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.3070604101448</v>
+        <v>5.194082031717301</v>
       </c>
       <c r="C22">
-        <v>3.377697984444183</v>
+        <v>1.320803185886348</v>
       </c>
       <c r="D22">
-        <v>0.06677498884434385</v>
+        <v>0.6129942313277752</v>
       </c>
       <c r="E22">
-        <v>3.066452346189934</v>
+        <v>3.035161333489668</v>
       </c>
       <c r="F22">
-        <v>5.029228456396908</v>
+        <v>12.34317408652311</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.232887389769729</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.465504181830369</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,25 +1396,31 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.987348133882904</v>
+        <v>4.943898898645955</v>
       </c>
       <c r="C23">
-        <v>3.223987023061113</v>
+        <v>1.25494670349596</v>
       </c>
       <c r="D23">
-        <v>0.06343620130352434</v>
+        <v>0.5861344428583379</v>
       </c>
       <c r="E23">
-        <v>2.91158971071421</v>
+        <v>2.877934112559245</v>
       </c>
       <c r="F23">
-        <v>4.796987929030593</v>
+        <v>11.7923414459504</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.132890917865723</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.394132278995528</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,25 +1443,31 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.827237562449966</v>
+        <v>4.055261802957773</v>
       </c>
       <c r="C24">
-        <v>2.670987054670604</v>
+        <v>1.023264478899961</v>
       </c>
       <c r="D24">
-        <v>0.05246862614557557</v>
+        <v>0.4908994298395726</v>
       </c>
       <c r="E24">
-        <v>2.367621567799461</v>
+        <v>2.330243796534248</v>
       </c>
       <c r="F24">
-        <v>3.974544605516343</v>
+        <v>9.829238678127211</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.782362558287261</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.141234319795714</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,25 +1490,31 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.652672717718474</v>
+        <v>3.18400676404849</v>
       </c>
       <c r="C25">
-        <v>2.118375326892021</v>
+        <v>0.7991743735552745</v>
       </c>
       <c r="D25">
-        <v>0.0431767107967147</v>
+        <v>0.3977926361004052</v>
       </c>
       <c r="E25">
-        <v>1.843227968609767</v>
+        <v>1.80782722387481</v>
       </c>
       <c r="F25">
-        <v>3.175869799742827</v>
+        <v>7.895844005532808</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.448165329253982</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8941189839664219</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590198406397292</v>
+        <v>3.65356915589598</v>
       </c>
       <c r="C2">
-        <v>0.6479273233222784</v>
+        <v>1.002244524435042</v>
       </c>
       <c r="D2">
-        <v>0.334477345342151</v>
+        <v>0.03861069538335471</v>
       </c>
       <c r="E2">
-        <v>1.458982960119599</v>
+        <v>1.44589092180945</v>
       </c>
       <c r="F2">
-        <v>6.574029785898148</v>
+        <v>0.4574658647079843</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7261000896965015</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.194603449400716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.207838415520882</v>
+        <v>3.17684328689694</v>
       </c>
       <c r="C3">
-        <v>0.5510599346676202</v>
+        <v>0.8803640611765502</v>
       </c>
       <c r="D3">
-        <v>0.2937554634179236</v>
+        <v>0.03419790003680134</v>
       </c>
       <c r="E3">
-        <v>1.237111862226584</v>
+        <v>1.239190336923883</v>
       </c>
       <c r="F3">
-        <v>5.721414890612806</v>
+        <v>0.4099553381823</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6180521439203162</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.086297697569194</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980496020506507</v>
+        <v>2.885098170475544</v>
       </c>
       <c r="C4">
-        <v>0.4936200238269919</v>
+        <v>0.8056924583000864</v>
       </c>
       <c r="D4">
-        <v>0.2695533610836947</v>
+        <v>0.0314980070585591</v>
       </c>
       <c r="E4">
-        <v>1.106125853166347</v>
+        <v>1.114984026144938</v>
       </c>
       <c r="F4">
-        <v>5.2139823386633</v>
+        <v>0.3825950706501331</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5538508789427894</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.025905654002202</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.889409610457363</v>
+        <v>2.766384131251868</v>
       </c>
       <c r="C5">
-        <v>0.47063247506577</v>
+        <v>0.7752885288976472</v>
       </c>
       <c r="D5">
-        <v>0.2598572217360697</v>
+        <v>0.03039953561561504</v>
       </c>
       <c r="E5">
-        <v>1.053828202328063</v>
+        <v>1.06494422978318</v>
       </c>
       <c r="F5">
-        <v>5.010580822519614</v>
+        <v>0.3718607182555473</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5281350756201064</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.002698521908457</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.874370589218927</v>
+        <v>2.746680395334408</v>
       </c>
       <c r="C6">
-        <v>0.4668383063685724</v>
+        <v>0.7702410766613923</v>
       </c>
       <c r="D6">
-        <v>0.2582562996469449</v>
+        <v>0.03021722369268076</v>
       </c>
       <c r="E6">
-        <v>1.045203180118705</v>
+        <v>1.056666997811206</v>
       </c>
       <c r="F6">
-        <v>4.976992714888866</v>
+        <v>0.3701022390444137</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5238895350839954</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9989260400546982</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979261669945913</v>
+        <v>2.883496531570358</v>
       </c>
       <c r="C7">
-        <v>0.4933084189191845</v>
+        <v>0.8052823374376317</v>
       </c>
       <c r="D7">
-        <v>0.2694219646754306</v>
+        <v>0.03148318638440628</v>
       </c>
       <c r="E7">
-        <v>1.105416463376116</v>
+        <v>1.11430697535846</v>
       </c>
       <c r="F7">
-        <v>5.211226313251814</v>
+        <v>0.3824486735509609</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5535023693865782</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.025587161822955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.45661744137351</v>
+        <v>3.488950276362743</v>
       </c>
       <c r="C8">
-        <v>0.6140443638893203</v>
+        <v>0.9601762468161894</v>
       </c>
       <c r="D8">
-        <v>0.3202474162061293</v>
+        <v>0.03708675757804514</v>
       </c>
       <c r="E8">
-        <v>1.38123750116533</v>
+        <v>1.37399140402978</v>
       </c>
       <c r="F8">
-        <v>6.276283657748422</v>
+        <v>0.4406830789456819</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6883413906209555</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.155908789986285</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.468559522212161</v>
+        <v>4.687372499497542</v>
       </c>
       <c r="C9">
-        <v>0.8720575201977567</v>
+        <v>1.266022097151222</v>
       </c>
       <c r="D9">
-        <v>0.4281727001387026</v>
+        <v>0.04818550004035416</v>
       </c>
       <c r="E9">
-        <v>1.976993192422057</v>
+        <v>1.910101905316509</v>
       </c>
       <c r="F9">
-        <v>8.528138435484919</v>
+        <v>0.5712390427095571</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9747439177941857</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.466485400245091</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.287975245833024</v>
+        <v>5.580062994807065</v>
       </c>
       <c r="C10">
-        <v>1.0836135091605</v>
+        <v>1.493274756660014</v>
       </c>
       <c r="D10">
-        <v>0.5158130609778198</v>
+        <v>0.05646241210082792</v>
       </c>
       <c r="E10">
-        <v>2.472129846257346</v>
+        <v>2.328942523170085</v>
       </c>
       <c r="F10">
-        <v>10.34426394714154</v>
+        <v>0.6801860287837513</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.207374115694321</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.738300127749113</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.686371107352272</v>
+        <v>5.990202706177399</v>
       </c>
       <c r="C11">
-        <v>1.187454200869411</v>
+        <v>1.597536429604418</v>
       </c>
       <c r="D11">
-        <v>0.5585076088654262</v>
+        <v>0.06026921519894302</v>
       </c>
       <c r="E11">
-        <v>2.717533875335491</v>
+        <v>2.527182316141605</v>
       </c>
       <c r="F11">
-        <v>11.22445405503584</v>
+        <v>0.733350665616328</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.320746364603238</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.873993580230575</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.841965165293175</v>
+        <v>6.146223832119517</v>
       </c>
       <c r="C12">
-        <v>1.228196554735973</v>
+        <v>1.637175295503653</v>
       </c>
       <c r="D12">
-        <v>0.5751966490786913</v>
+        <v>0.06171817412964486</v>
       </c>
       <c r="E12">
-        <v>2.814273662961511</v>
+        <v>2.603584381246691</v>
       </c>
       <c r="F12">
-        <v>11.56766714808703</v>
+        <v>0.7540744535712349</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.365075223394996</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.927353549975606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.808224791069506</v>
+        <v>6.112588108583623</v>
       </c>
       <c r="C13">
-        <v>1.219352478929977</v>
+        <v>1.628630841177369</v>
       </c>
       <c r="D13">
-        <v>0.5715769647282229</v>
+        <v>0.06140576057514835</v>
       </c>
       <c r="E13">
-        <v>2.793251683630999</v>
+        <v>2.587066586312332</v>
       </c>
       <c r="F13">
-        <v>11.49326877448715</v>
+        <v>0.7495836463256325</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.355460066321271</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.915769440902665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.699070025843298</v>
+        <v>6.0030236396791</v>
       </c>
       <c r="C14">
-        <v>1.190775399168899</v>
+        <v>1.600794205042519</v>
       </c>
       <c r="D14">
-        <v>0.5598693922877658</v>
+        <v>0.06038826459241875</v>
       </c>
       <c r="E14">
-        <v>2.725410029482589</v>
+        <v>2.53343983225723</v>
       </c>
       <c r="F14">
-        <v>11.2524774452815</v>
+        <v>0.7350433185091845</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.324363197557446</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.878342433681695</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.63286184377688</v>
+        <v>5.936008769857722</v>
       </c>
       <c r="C15">
-        <v>1.173467480470094</v>
+        <v>1.583764899842151</v>
       </c>
       <c r="D15">
-        <v>0.5527700781981366</v>
+        <v>0.05976602918973839</v>
       </c>
       <c r="E15">
-        <v>2.684383515780723</v>
+        <v>2.500772756271303</v>
       </c>
       <c r="F15">
-        <v>11.10634951643482</v>
+        <v>0.7262163023034418</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.305508287014618</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.855682373255007</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.262537549784781</v>
+        <v>5.55335147447164</v>
       </c>
       <c r="C16">
-        <v>1.077006023983699</v>
+        <v>1.486481283388457</v>
       </c>
       <c r="D16">
-        <v>0.5130888567858563</v>
+        <v>0.05621458255129141</v>
       </c>
       <c r="E16">
-        <v>2.456569226845218</v>
+        <v>2.316160600413454</v>
       </c>
       <c r="F16">
-        <v>10.28799778903874</v>
+        <v>0.6767901812289239</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.200141487057124</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.72969477305071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.042575696265658</v>
+        <v>5.319727173906699</v>
       </c>
       <c r="C17">
-        <v>1.019980916030391</v>
+        <v>1.427047512301726</v>
       </c>
       <c r="D17">
-        <v>0.4895418349746308</v>
+        <v>0.05404748730062181</v>
       </c>
       <c r="E17">
-        <v>2.322538887657558</v>
+        <v>2.205030298275005</v>
       </c>
       <c r="F17">
-        <v>9.801144767401723</v>
+        <v>0.6474413772912158</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.137630504492947</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.655654577717996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.918395951757077</v>
+        <v>5.18572540217184</v>
       </c>
       <c r="C18">
-        <v>0.9878729785552309</v>
+        <v>1.392943901907813</v>
       </c>
       <c r="D18">
-        <v>0.4762557996074577</v>
+        <v>0.05280484970190003</v>
       </c>
       <c r="E18">
-        <v>2.247277866009426</v>
+        <v>2.141821199478073</v>
       </c>
       <c r="F18">
-        <v>9.526048413651324</v>
+        <v>0.6308950932391468</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.10236324990997</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.614185979594282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.876724979036396</v>
+        <v>5.140415076905697</v>
       </c>
       <c r="C19">
-        <v>0.9771120820507804</v>
+        <v>1.381410077713838</v>
       </c>
       <c r="D19">
-        <v>0.4717986168416815</v>
+        <v>0.05238472970526686</v>
       </c>
       <c r="E19">
-        <v>2.22208677318288</v>
+        <v>2.120535350376585</v>
       </c>
       <c r="F19">
-        <v>9.433696197072095</v>
+        <v>0.6253481424863452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.090532326992999</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.600330373230435</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.065742573090688</v>
+        <v>5.344557424785194</v>
       </c>
       <c r="C20">
-        <v>1.025977716529212</v>
+        <v>1.433365735797963</v>
       </c>
       <c r="D20">
-        <v>0.4920210646002374</v>
+        <v>0.05427777345873608</v>
       </c>
       <c r="E20">
-        <v>2.336611592527873</v>
+        <v>2.216785296334038</v>
       </c>
       <c r="F20">
-        <v>9.852447405469775</v>
+        <v>0.6505304985082034</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.144211784978538</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.663418966590456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.730993170775719</v>
+        <v>6.035185013054559</v>
       </c>
       <c r="C21">
-        <v>1.199127523131665</v>
+        <v>1.608965972733529</v>
       </c>
       <c r="D21">
-        <v>0.563292947921326</v>
+        <v>0.06068691444045982</v>
       </c>
       <c r="E21">
-        <v>2.745224557723631</v>
+        <v>2.549153166963919</v>
       </c>
       <c r="F21">
-        <v>11.32291476909609</v>
+        <v>0.7392974844045028</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.333456221749827</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.889279935424497</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.194082031717301</v>
+        <v>6.490760030649881</v>
       </c>
       <c r="C22">
-        <v>1.320803185886348</v>
+        <v>1.724664246468478</v>
       </c>
       <c r="D22">
-        <v>0.6129942313277752</v>
+        <v>0.06491964349890367</v>
       </c>
       <c r="E22">
-        <v>3.035161333489668</v>
+        <v>2.774275462990687</v>
       </c>
       <c r="F22">
-        <v>12.34317408652311</v>
+        <v>0.8008001998274636</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.465504181830369</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.048545632740428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.943898898645955</v>
+        <v>6.247179511589195</v>
       </c>
       <c r="C23">
-        <v>1.25494670349596</v>
+        <v>1.662817484722609</v>
       </c>
       <c r="D23">
-        <v>0.5861344428583379</v>
+        <v>0.06265600365708224</v>
       </c>
       <c r="E23">
-        <v>2.877934112559245</v>
+        <v>2.653316705848056</v>
       </c>
       <c r="F23">
-        <v>11.7923414459504</v>
+        <v>0.7676292655277308</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.394132278995528</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.96238756885117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.055261802957773</v>
+        <v>5.333330706157028</v>
       </c>
       <c r="C24">
-        <v>1.023264478899961</v>
+        <v>1.430509064683918</v>
       </c>
       <c r="D24">
-        <v>0.4908994298395726</v>
+        <v>0.05417365105488159</v>
       </c>
       <c r="E24">
-        <v>2.330243796534248</v>
+        <v>2.211468756447289</v>
       </c>
       <c r="F24">
-        <v>9.829238678127211</v>
+        <v>0.649132894523035</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.141234319795714</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.659905284108788</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.18400676404849</v>
+        <v>4.361450325056353</v>
       </c>
       <c r="C25">
-        <v>0.7991743735552745</v>
+        <v>1.182935475828856</v>
       </c>
       <c r="D25">
-        <v>0.3977926361004052</v>
+        <v>0.04516592618351467</v>
       </c>
       <c r="E25">
-        <v>1.80782722387481</v>
+        <v>1.7613756796774</v>
       </c>
       <c r="F25">
-        <v>7.895844005532808</v>
+        <v>0.5338722426101299</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8941189839664219</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.375597415449533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.65356915589598</v>
+        <v>1.2054769113617</v>
       </c>
       <c r="C2">
-        <v>1.002244524435042</v>
+        <v>0.3299325156323505</v>
       </c>
       <c r="D2">
-        <v>0.03861069538335471</v>
+        <v>0.01388337651986404</v>
       </c>
       <c r="E2">
-        <v>1.44589092180945</v>
+        <v>0.4245925918300344</v>
       </c>
       <c r="F2">
-        <v>0.4574658647079843</v>
+        <v>0.441698669717745</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.194603449400716</v>
+        <v>1.383927038744844</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17684328689694</v>
+        <v>1.056831324844325</v>
       </c>
       <c r="C3">
-        <v>0.8803640611765502</v>
+        <v>0.2904986091814408</v>
       </c>
       <c r="D3">
-        <v>0.03419790003680134</v>
+        <v>0.01236594077360564</v>
       </c>
       <c r="E3">
-        <v>1.239190336923883</v>
+        <v>0.37026579236597</v>
       </c>
       <c r="F3">
-        <v>0.4099553381823</v>
+        <v>0.4375669543272593</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.086297697569194</v>
+        <v>1.384955041402407</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.885098170475544</v>
+        <v>0.9653392133317311</v>
       </c>
       <c r="C4">
-        <v>0.8056924583000864</v>
+        <v>0.2661785677906607</v>
       </c>
       <c r="D4">
-        <v>0.0314980070585591</v>
+        <v>0.01143135250730154</v>
       </c>
       <c r="E4">
-        <v>1.114984026144938</v>
+        <v>0.3370109357875037</v>
       </c>
       <c r="F4">
-        <v>0.3825950706501331</v>
+        <v>0.4355725835690976</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.025905654002202</v>
+        <v>1.387419968358103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.766384131251868</v>
+        <v>0.9280008519348257</v>
       </c>
       <c r="C5">
-        <v>0.7752885288976472</v>
+        <v>0.2562414314373882</v>
       </c>
       <c r="D5">
-        <v>0.03039953561561504</v>
+        <v>0.01104980545873246</v>
       </c>
       <c r="E5">
-        <v>1.06494422978318</v>
+        <v>0.3234828543049986</v>
       </c>
       <c r="F5">
-        <v>0.3718607182555473</v>
+        <v>0.4348954029591994</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.002698521908457</v>
+        <v>1.388882426217862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.746680395334408</v>
+        <v>0.9217975943939791</v>
       </c>
       <c r="C6">
-        <v>0.7702410766613923</v>
+        <v>0.2545897906098844</v>
       </c>
       <c r="D6">
-        <v>0.03021722369268076</v>
+        <v>0.01098640875816415</v>
       </c>
       <c r="E6">
-        <v>1.056666997811206</v>
+        <v>0.3212378872433845</v>
       </c>
       <c r="F6">
-        <v>0.3701022390444137</v>
+        <v>0.4347911182924733</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9989260400546982</v>
+        <v>1.38915283563486</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.883496531570358</v>
+        <v>0.9648358740913636</v>
       </c>
       <c r="C7">
-        <v>0.8052823374376317</v>
+        <v>0.2660446588068339</v>
       </c>
       <c r="D7">
-        <v>0.03148318638440628</v>
+        <v>0.01142620960523999</v>
       </c>
       <c r="E7">
-        <v>1.11430697535846</v>
+        <v>0.3368283987874321</v>
       </c>
       <c r="F7">
-        <v>0.3824486735509609</v>
+        <v>0.435562903239834</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.025587161822955</v>
+        <v>1.387437841387509</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.488950276362743</v>
+        <v>1.154271079244324</v>
       </c>
       <c r="C8">
-        <v>0.9601762468161894</v>
+        <v>0.3163582940311471</v>
       </c>
       <c r="D8">
-        <v>0.03708675757804514</v>
+        <v>0.01336077815361847</v>
       </c>
       <c r="E8">
-        <v>1.37399140402978</v>
+        <v>0.4058382475447218</v>
       </c>
       <c r="F8">
-        <v>0.4406830789456819</v>
+        <v>0.440160922482022</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.155908789986285</v>
+        <v>1.383899017092546</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.687372499497542</v>
+        <v>1.523935298033621</v>
       </c>
       <c r="C9">
-        <v>1.266022097151222</v>
+        <v>0.4141536311091727</v>
       </c>
       <c r="D9">
-        <v>0.04818550004035416</v>
+        <v>0.01713059949575069</v>
       </c>
       <c r="E9">
-        <v>1.910101905316509</v>
+        <v>0.5420775926543655</v>
       </c>
       <c r="F9">
-        <v>0.5712390427095571</v>
+        <v>0.453523150812174</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.466485400245091</v>
+        <v>1.391652447194474</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.580062994807065</v>
+        <v>1.794384906139726</v>
       </c>
       <c r="C10">
-        <v>1.493274756660014</v>
+        <v>0.4854586294006822</v>
       </c>
       <c r="D10">
-        <v>0.05646241210082792</v>
+        <v>0.01988466917678267</v>
       </c>
       <c r="E10">
-        <v>2.328942523170085</v>
+        <v>0.6428785719488133</v>
       </c>
       <c r="F10">
-        <v>0.6801860287837513</v>
+        <v>0.4660478875119622</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.738300127749113</v>
+        <v>1.406507688373466</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.990202706177399</v>
+        <v>1.917166366813888</v>
       </c>
       <c r="C11">
-        <v>1.597536429604418</v>
+        <v>0.5177761598071697</v>
       </c>
       <c r="D11">
-        <v>0.06026921519894302</v>
+        <v>0.02113398204294725</v>
       </c>
       <c r="E11">
-        <v>2.527182316141605</v>
+        <v>0.6889221478109562</v>
       </c>
       <c r="F11">
-        <v>0.733350665616328</v>
+        <v>0.4723463114223563</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.873993580230575</v>
+        <v>1.415298141285945</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.146223832119517</v>
+        <v>1.963623957007314</v>
       </c>
       <c r="C12">
-        <v>1.637175295503653</v>
+        <v>0.5299964307634468</v>
       </c>
       <c r="D12">
-        <v>0.06171817412964486</v>
+        <v>0.02160653608757457</v>
       </c>
       <c r="E12">
-        <v>2.603584381246691</v>
+        <v>0.7063873339732254</v>
       </c>
       <c r="F12">
-        <v>0.7540744535712349</v>
+        <v>0.4748187584742567</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.927353549975606</v>
+        <v>1.418922657074035</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.112588108583623</v>
+        <v>1.953620156600778</v>
       </c>
       <c r="C13">
-        <v>1.628630841177369</v>
+        <v>0.5273653707092194</v>
       </c>
       <c r="D13">
-        <v>0.06140576057514835</v>
+        <v>0.0215047872627494</v>
       </c>
       <c r="E13">
-        <v>2.587066586312332</v>
+        <v>0.7026245446588746</v>
       </c>
       <c r="F13">
-        <v>0.7495836463256325</v>
+        <v>0.4742823714906024</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.915769440902665</v>
+        <v>1.418128843461943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.0030236396791</v>
+        <v>1.920989212423251</v>
       </c>
       <c r="C14">
-        <v>1.600794205042519</v>
+        <v>0.5187818859170648</v>
       </c>
       <c r="D14">
-        <v>0.06038826459241875</v>
+        <v>0.02117287019112268</v>
       </c>
       <c r="E14">
-        <v>2.53343983225723</v>
+        <v>0.6903584147401745</v>
       </c>
       <c r="F14">
-        <v>0.7350433185091845</v>
+        <v>0.4725479645388617</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.878342433681695</v>
+        <v>1.415590385022313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.936008769857722</v>
+        <v>1.900996943457415</v>
       </c>
       <c r="C15">
-        <v>1.583764899842151</v>
+        <v>0.5135219371092035</v>
       </c>
       <c r="D15">
-        <v>0.05976602918973839</v>
+        <v>0.02096949113956725</v>
       </c>
       <c r="E15">
-        <v>2.500772756271303</v>
+        <v>0.6828489657860644</v>
       </c>
       <c r="F15">
-        <v>0.7262163023034418</v>
+        <v>0.4714969972042695</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.855682373255007</v>
+        <v>1.414074125701575</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.55335147447164</v>
+        <v>1.786355740578244</v>
       </c>
       <c r="C16">
-        <v>1.486481283388457</v>
+        <v>0.4833441559972584</v>
       </c>
       <c r="D16">
-        <v>0.05621458255129141</v>
+        <v>0.01980295038744373</v>
       </c>
       <c r="E16">
-        <v>2.316160600413454</v>
+        <v>0.6398735132023745</v>
       </c>
       <c r="F16">
-        <v>0.6767901812289239</v>
+        <v>0.4656484441841258</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.72969477305071</v>
+        <v>1.40597441066285</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.319727173906699</v>
+        <v>1.7159626214073</v>
       </c>
       <c r="C17">
-        <v>1.427047512301726</v>
+        <v>0.4648001082296673</v>
       </c>
       <c r="D17">
-        <v>0.05404748730062181</v>
+        <v>0.0190863929290046</v>
       </c>
       <c r="E17">
-        <v>2.205030298275005</v>
+        <v>0.6135594577242642</v>
       </c>
       <c r="F17">
-        <v>0.6474413772912158</v>
+        <v>0.4622151284550426</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655654577717996</v>
+        <v>1.401528585528638</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.18572540217184</v>
+        <v>1.67545115994136</v>
       </c>
       <c r="C18">
-        <v>1.392943901907813</v>
+        <v>0.4541228461810647</v>
       </c>
       <c r="D18">
-        <v>0.05280484970190003</v>
+        <v>0.01867391755196479</v>
       </c>
       <c r="E18">
-        <v>2.141821199478073</v>
+        <v>0.5984419285571221</v>
       </c>
       <c r="F18">
-        <v>0.6308950932391468</v>
+        <v>0.4602968736919166</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.614185979594282</v>
+        <v>1.399162587266261</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.140415076905697</v>
+        <v>1.661730736876791</v>
       </c>
       <c r="C19">
-        <v>1.381410077713838</v>
+        <v>0.4505057976432454</v>
       </c>
       <c r="D19">
-        <v>0.05238472970526686</v>
+        <v>0.01853420453561938</v>
       </c>
       <c r="E19">
-        <v>2.120535350376585</v>
+        <v>0.593326348084986</v>
       </c>
       <c r="F19">
-        <v>0.6253481424863452</v>
+        <v>0.4596570596562657</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.600330373230435</v>
+        <v>1.398394221217472</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.344557424785194</v>
+        <v>1.72345850135747</v>
       </c>
       <c r="C20">
-        <v>1.433365735797963</v>
+        <v>0.4667753182363299</v>
       </c>
       <c r="D20">
-        <v>0.05427777345873608</v>
+        <v>0.01916270609149962</v>
       </c>
       <c r="E20">
-        <v>2.216785296334038</v>
+        <v>0.6163587933429682</v>
       </c>
       <c r="F20">
-        <v>0.6505304985082034</v>
+        <v>0.4625747564943907</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663418966590456</v>
+        <v>1.401982045758189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.035185013054559</v>
+        <v>1.930574729968157</v>
       </c>
       <c r="C21">
-        <v>1.608965972733529</v>
+        <v>0.521303547098853</v>
       </c>
       <c r="D21">
-        <v>0.06068691444045982</v>
+        <v>0.02127037696963896</v>
       </c>
       <c r="E21">
-        <v>2.549153166963919</v>
+        <v>0.6939604554036123</v>
       </c>
       <c r="F21">
-        <v>0.7392974844045028</v>
+        <v>0.4730550229627255</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.889279935424497</v>
+        <v>1.416327937285843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.490760030649881</v>
+        <v>2.065720332583794</v>
       </c>
       <c r="C22">
-        <v>1.724664246468478</v>
+        <v>0.5568376430126136</v>
       </c>
       <c r="D22">
-        <v>0.06491964349890367</v>
+        <v>0.02264473974224757</v>
       </c>
       <c r="E22">
-        <v>2.774275462990687</v>
+        <v>0.7448505902177658</v>
       </c>
       <c r="F22">
-        <v>0.8008001998274636</v>
+        <v>0.4804141968492672</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.048545632740428</v>
+        <v>1.42742934729705</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.247179511589195</v>
+        <v>1.993610907615164</v>
       </c>
       <c r="C23">
-        <v>1.662817484722609</v>
+        <v>0.5378820360190844</v>
       </c>
       <c r="D23">
-        <v>0.06265600365708224</v>
+        <v>0.02191151061945362</v>
       </c>
       <c r="E23">
-        <v>2.653316705848056</v>
+        <v>0.7176729576034973</v>
       </c>
       <c r="F23">
-        <v>0.7676292655277308</v>
+        <v>0.4764395078873349</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.96238756885117</v>
+        <v>1.42134528323092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.333330706157028</v>
+        <v>1.7200697432487</v>
       </c>
       <c r="C24">
-        <v>1.430509064683918</v>
+        <v>0.4658823757277446</v>
       </c>
       <c r="D24">
-        <v>0.05417365105488159</v>
+        <v>0.01912820651954661</v>
       </c>
       <c r="E24">
-        <v>2.211468756447289</v>
+        <v>0.6150931803568795</v>
       </c>
       <c r="F24">
-        <v>0.649132894523035</v>
+        <v>0.4624119955302888</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659905284108788</v>
+        <v>1.401776444925162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.361450325056353</v>
+        <v>1.424129652389411</v>
       </c>
       <c r="C25">
-        <v>1.182935475828856</v>
+        <v>0.3877921022066744</v>
       </c>
       <c r="D25">
-        <v>0.04516592618351467</v>
+        <v>0.01611343166023005</v>
       </c>
       <c r="E25">
-        <v>1.7613756796774</v>
+        <v>0.5051082374701679</v>
       </c>
       <c r="F25">
-        <v>0.5338722426101299</v>
+        <v>0.4494370706573534</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.375597415449533</v>
+        <v>1.387961149817301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.2054769113617</v>
+        <v>3.653569155896037</v>
       </c>
       <c r="C2">
-        <v>0.3299325156323505</v>
+        <v>1.002244524435298</v>
       </c>
       <c r="D2">
-        <v>0.01388337651986404</v>
+        <v>0.03861069538323392</v>
       </c>
       <c r="E2">
-        <v>0.4245925918300344</v>
+        <v>1.44589092180945</v>
       </c>
       <c r="F2">
-        <v>0.441698669717745</v>
+        <v>0.4574658647079701</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.383927038744844</v>
+        <v>1.194603449400716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.056831324844325</v>
+        <v>3.176843286896997</v>
       </c>
       <c r="C3">
-        <v>0.2904986091814408</v>
+        <v>0.8803640611762944</v>
       </c>
       <c r="D3">
-        <v>0.01236594077360564</v>
+        <v>0.03419790003680134</v>
       </c>
       <c r="E3">
-        <v>0.37026579236597</v>
+        <v>1.239190336923883</v>
       </c>
       <c r="F3">
-        <v>0.4375669543272593</v>
+        <v>0.4099553381823</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.384955041402407</v>
+        <v>1.086297697569137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9653392133317311</v>
+        <v>2.885098170475544</v>
       </c>
       <c r="C4">
-        <v>0.2661785677906607</v>
+        <v>0.8056924583000864</v>
       </c>
       <c r="D4">
-        <v>0.01143135250730154</v>
+        <v>0.03149800705845962</v>
       </c>
       <c r="E4">
-        <v>0.3370109357875037</v>
+        <v>1.114984026144967</v>
       </c>
       <c r="F4">
-        <v>0.4355725835690976</v>
+        <v>0.3825950706501473</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.387419968358103</v>
+        <v>1.025905654002116</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9280008519348257</v>
+        <v>2.766384131251812</v>
       </c>
       <c r="C5">
-        <v>0.2562414314373882</v>
+        <v>0.7752885288976188</v>
       </c>
       <c r="D5">
-        <v>0.01104980545873246</v>
+        <v>0.03039953561571451</v>
       </c>
       <c r="E5">
-        <v>0.3234828543049986</v>
+        <v>1.064944229783151</v>
       </c>
       <c r="F5">
-        <v>0.4348954029591994</v>
+        <v>0.3718607182555473</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.388882426217862</v>
+        <v>1.002698521908428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9217975943939791</v>
+        <v>2.746680395334408</v>
       </c>
       <c r="C6">
-        <v>0.2545897906098844</v>
+        <v>0.7702410766613355</v>
       </c>
       <c r="D6">
-        <v>0.01098640875816415</v>
+        <v>0.03021722369252444</v>
       </c>
       <c r="E6">
-        <v>0.3212378872433845</v>
+        <v>1.056666997811192</v>
       </c>
       <c r="F6">
-        <v>0.4347911182924733</v>
+        <v>0.3701022390443995</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.38915283563486</v>
+        <v>0.9989260400546698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9648358740913636</v>
+        <v>2.883496531570131</v>
       </c>
       <c r="C7">
-        <v>0.2660446588068339</v>
+        <v>0.8052823374376317</v>
       </c>
       <c r="D7">
-        <v>0.01142620960523999</v>
+        <v>0.03148318638439918</v>
       </c>
       <c r="E7">
-        <v>0.3368283987874321</v>
+        <v>1.114306975358431</v>
       </c>
       <c r="F7">
-        <v>0.435562903239834</v>
+        <v>0.3824486735509538</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.387437841387509</v>
+        <v>1.025587161822898</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.154271079244324</v>
+        <v>3.4889502763628</v>
       </c>
       <c r="C8">
-        <v>0.3163582940311471</v>
+        <v>0.9601762468160757</v>
       </c>
       <c r="D8">
-        <v>0.01336077815361847</v>
+        <v>0.0370867575780025</v>
       </c>
       <c r="E8">
-        <v>0.4058382475447218</v>
+        <v>1.373991404029766</v>
       </c>
       <c r="F8">
-        <v>0.440160922482022</v>
+        <v>0.4406830789456819</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.383899017092546</v>
+        <v>1.155908789986228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.523935298033621</v>
+        <v>4.687372499497542</v>
       </c>
       <c r="C9">
-        <v>0.4141536311091727</v>
+        <v>1.266022097150994</v>
       </c>
       <c r="D9">
-        <v>0.01713059949575069</v>
+        <v>0.04818550004039679</v>
       </c>
       <c r="E9">
-        <v>0.5420775926543655</v>
+        <v>1.910101905316466</v>
       </c>
       <c r="F9">
-        <v>0.453523150812174</v>
+        <v>0.5712390427095642</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.391652447194474</v>
+        <v>1.466485400245119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.794384906139726</v>
+        <v>5.580062994807008</v>
       </c>
       <c r="C10">
-        <v>0.4854586294006822</v>
+        <v>1.493274756660185</v>
       </c>
       <c r="D10">
-        <v>0.01988466917678267</v>
+        <v>0.05646241210065028</v>
       </c>
       <c r="E10">
-        <v>0.6428785719488133</v>
+        <v>2.328942523170113</v>
       </c>
       <c r="F10">
-        <v>0.4660478875119622</v>
+        <v>0.6801860287837656</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.406507688373466</v>
+        <v>1.738300127749142</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.917166366813888</v>
+        <v>5.99020270617774</v>
       </c>
       <c r="C11">
-        <v>0.5177761598071697</v>
+        <v>1.597536429604133</v>
       </c>
       <c r="D11">
-        <v>0.02113398204294725</v>
+        <v>0.06026921519906381</v>
       </c>
       <c r="E11">
-        <v>0.6889221478109562</v>
+        <v>2.527182316141563</v>
       </c>
       <c r="F11">
-        <v>0.4723463114223563</v>
+        <v>0.7333506656163138</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.415298141285945</v>
+        <v>1.873993580230604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.963623957007314</v>
+        <v>6.146223832119233</v>
       </c>
       <c r="C12">
-        <v>0.5299964307634468</v>
+        <v>1.63717529550371</v>
       </c>
       <c r="D12">
-        <v>0.02160653608757457</v>
+        <v>0.06171817412964486</v>
       </c>
       <c r="E12">
-        <v>0.7063873339732254</v>
+        <v>2.603584381246691</v>
       </c>
       <c r="F12">
-        <v>0.4748187584742567</v>
+        <v>0.7540744535712633</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.418922657074035</v>
+        <v>1.927353549975606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.953620156600778</v>
+        <v>6.112588108583907</v>
       </c>
       <c r="C13">
-        <v>0.5273653707092194</v>
+        <v>1.628630841177255</v>
       </c>
       <c r="D13">
-        <v>0.0215047872627494</v>
+        <v>0.06140576057514124</v>
       </c>
       <c r="E13">
-        <v>0.7026245446588746</v>
+        <v>2.587066586312318</v>
       </c>
       <c r="F13">
-        <v>0.4742823714906024</v>
+        <v>0.7495836463256325</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.418128843461943</v>
+        <v>1.915769440902721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.920989212423251</v>
+        <v>6.003023639679157</v>
       </c>
       <c r="C14">
-        <v>0.5187818859170648</v>
+        <v>1.600794205042689</v>
       </c>
       <c r="D14">
-        <v>0.02117287019112268</v>
+        <v>0.06038826459217717</v>
       </c>
       <c r="E14">
-        <v>0.6903584147401745</v>
+        <v>2.53343983225723</v>
       </c>
       <c r="F14">
-        <v>0.4725479645388617</v>
+        <v>0.7350433185091987</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.415590385022313</v>
+        <v>1.878342433681809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.900996943457415</v>
+        <v>5.936008769857779</v>
       </c>
       <c r="C15">
-        <v>0.5135219371092035</v>
+        <v>1.583764899841924</v>
       </c>
       <c r="D15">
-        <v>0.02096949113956725</v>
+        <v>0.05976602918984497</v>
       </c>
       <c r="E15">
-        <v>0.6828489657860644</v>
+        <v>2.500772756271289</v>
       </c>
       <c r="F15">
-        <v>0.4714969972042695</v>
+        <v>0.7262163023034418</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.414074125701575</v>
+        <v>1.855682373255036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.786355740578244</v>
+        <v>5.553351474471583</v>
       </c>
       <c r="C16">
-        <v>0.4833441559972584</v>
+        <v>1.486481283388798</v>
       </c>
       <c r="D16">
-        <v>0.01980295038744373</v>
+        <v>0.05621458255117062</v>
       </c>
       <c r="E16">
-        <v>0.6398735132023745</v>
+        <v>2.316160600413454</v>
       </c>
       <c r="F16">
-        <v>0.4656484441841258</v>
+        <v>0.6767901812289097</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.40597441066285</v>
+        <v>1.72969477305071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.7159626214073</v>
+        <v>5.319727173906585</v>
       </c>
       <c r="C17">
-        <v>0.4648001082296673</v>
+        <v>1.427047512301669</v>
       </c>
       <c r="D17">
-        <v>0.0190863929290046</v>
+        <v>0.05404748730052233</v>
       </c>
       <c r="E17">
-        <v>0.6135594577242642</v>
+        <v>2.205030298274977</v>
       </c>
       <c r="F17">
-        <v>0.4622151284550426</v>
+        <v>0.6474413772912015</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.401528585528638</v>
+        <v>1.655654577717996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.67545115994136</v>
+        <v>5.185725402171613</v>
       </c>
       <c r="C18">
-        <v>0.4541228461810647</v>
+        <v>1.392943901908097</v>
       </c>
       <c r="D18">
-        <v>0.01867391755196479</v>
+        <v>0.05280484970182897</v>
       </c>
       <c r="E18">
-        <v>0.5984419285571221</v>
+        <v>2.141821199478073</v>
       </c>
       <c r="F18">
-        <v>0.4602968736919166</v>
+        <v>0.630895093239161</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.399162587266261</v>
+        <v>1.614185979594282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.661730736876791</v>
+        <v>5.14041507690564</v>
       </c>
       <c r="C19">
-        <v>0.4505057976432454</v>
+        <v>1.381410077713554</v>
       </c>
       <c r="D19">
-        <v>0.01853420453561938</v>
+        <v>0.05238472970519581</v>
       </c>
       <c r="E19">
-        <v>0.593326348084986</v>
+        <v>2.120535350376599</v>
       </c>
       <c r="F19">
-        <v>0.4596570596562657</v>
+        <v>0.625348142486331</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.398394221217472</v>
+        <v>1.600330373230292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.72345850135747</v>
+        <v>5.34455742478508</v>
       </c>
       <c r="C20">
-        <v>0.4667753182363299</v>
+        <v>1.433365735797963</v>
       </c>
       <c r="D20">
-        <v>0.01916270609149962</v>
+        <v>0.05427777345895635</v>
       </c>
       <c r="E20">
-        <v>0.6163587933429682</v>
+        <v>2.216785296334024</v>
       </c>
       <c r="F20">
-        <v>0.4625747564943907</v>
+        <v>0.6505304985081892</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.401982045758189</v>
+        <v>1.663418966590456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.930574729968157</v>
+        <v>6.035185013054445</v>
       </c>
       <c r="C21">
-        <v>0.521303547098853</v>
+        <v>1.608965972733415</v>
       </c>
       <c r="D21">
-        <v>0.02127037696963896</v>
+        <v>0.06068691444040297</v>
       </c>
       <c r="E21">
-        <v>0.6939604554036123</v>
+        <v>2.549153166963947</v>
       </c>
       <c r="F21">
-        <v>0.4730550229627255</v>
+        <v>0.7392974844044744</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.416327937285843</v>
+        <v>1.889279935424554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.065720332583794</v>
+        <v>6.490760030649597</v>
       </c>
       <c r="C22">
-        <v>0.5568376430126136</v>
+        <v>1.724664246468421</v>
       </c>
       <c r="D22">
-        <v>0.02264473974224757</v>
+        <v>0.0649196434990742</v>
       </c>
       <c r="E22">
-        <v>0.7448505902177658</v>
+        <v>2.774275462990616</v>
       </c>
       <c r="F22">
-        <v>0.4804141968492672</v>
+        <v>0.8008001998274494</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.42742934729705</v>
+        <v>2.048545632740371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993610907615164</v>
+        <v>6.247179511589479</v>
       </c>
       <c r="C23">
-        <v>0.5378820360190844</v>
+        <v>1.662817484722552</v>
       </c>
       <c r="D23">
-        <v>0.02191151061945362</v>
+        <v>0.06265600365713198</v>
       </c>
       <c r="E23">
-        <v>0.7176729576034973</v>
+        <v>2.653316705848027</v>
       </c>
       <c r="F23">
-        <v>0.4764395078873349</v>
+        <v>0.767629265527745</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.42134528323092</v>
+        <v>1.962387568851085</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.7200697432487</v>
+        <v>5.333330706156858</v>
       </c>
       <c r="C24">
-        <v>0.4658823757277446</v>
+        <v>1.430509064684031</v>
       </c>
       <c r="D24">
-        <v>0.01912820651954661</v>
+        <v>0.05417365105487448</v>
       </c>
       <c r="E24">
-        <v>0.6150931803568795</v>
+        <v>2.211468756447317</v>
       </c>
       <c r="F24">
-        <v>0.4624119955302888</v>
+        <v>0.6491328945230634</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.401776444925162</v>
+        <v>1.659905284108874</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.424129652389411</v>
+        <v>4.361450325056296</v>
       </c>
       <c r="C25">
-        <v>0.3877921022066744</v>
+        <v>1.182935475828856</v>
       </c>
       <c r="D25">
-        <v>0.01611343166023005</v>
+        <v>0.04516592618356441</v>
       </c>
       <c r="E25">
-        <v>0.5051082374701679</v>
+        <v>1.761375679677428</v>
       </c>
       <c r="F25">
-        <v>0.4494370706573534</v>
+        <v>0.5338722426101228</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.387961149817301</v>
+        <v>1.375597415449619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.653569155896037</v>
+        <v>0.878844159267345</v>
       </c>
       <c r="C2">
-        <v>1.002244524435298</v>
+        <v>0.3796691122029756</v>
       </c>
       <c r="D2">
-        <v>0.03861069538323392</v>
+        <v>0.0891921156100608</v>
       </c>
       <c r="E2">
-        <v>1.44589092180945</v>
+        <v>1.248118025012346</v>
       </c>
       <c r="F2">
-        <v>0.4574658647079701</v>
+        <v>2.582290850069811</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.001258035826641191</v>
+      </c>
+      <c r="I2">
+        <v>0.004466212393107405</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.693855896659983</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.256605514292744</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.194603449400716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.176843286896997</v>
+        <v>0.7631442712940668</v>
       </c>
       <c r="C3">
-        <v>0.8803640611762944</v>
+        <v>0.3282403248422554</v>
       </c>
       <c r="D3">
-        <v>0.03419790003680134</v>
+        <v>0.08498815840650309</v>
       </c>
       <c r="E3">
-        <v>1.239190336923883</v>
+        <v>1.080556057403825</v>
       </c>
       <c r="F3">
-        <v>0.4099553381823</v>
+        <v>2.332099114998869</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.0002719868381046986</v>
+      </c>
+      <c r="I3">
+        <v>0.007423035026910441</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.548463830587082</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.089840583701687</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.086297697569137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.885098170475544</v>
+        <v>0.6922445745592256</v>
       </c>
       <c r="C4">
-        <v>0.8056924583000864</v>
+        <v>0.2972214101593522</v>
       </c>
       <c r="D4">
-        <v>0.03149800705845962</v>
+        <v>0.08228198646884621</v>
       </c>
       <c r="E4">
-        <v>1.114984026144967</v>
+        <v>0.9784271704663894</v>
       </c>
       <c r="F4">
-        <v>0.3825950706501473</v>
+        <v>2.17825919861896</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>2.002353454422234E-05</v>
+      </c>
+      <c r="I4">
+        <v>0.009740451784958637</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.458532610680962</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9881240574465266</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.025905654002116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.766384131251812</v>
+        <v>0.6631597293808795</v>
       </c>
       <c r="C5">
-        <v>0.7752885288976188</v>
+        <v>0.2851568130352575</v>
       </c>
       <c r="D5">
-        <v>0.03039953561571451</v>
+        <v>0.08094975971080487</v>
       </c>
       <c r="E5">
-        <v>1.064944229783151</v>
+        <v>0.9369516873688752</v>
       </c>
       <c r="F5">
-        <v>0.3718607182555473</v>
+        <v>2.111132933709513</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>2.903905826912023E-07</v>
+      </c>
+      <c r="I5">
+        <v>0.01089458415744193</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.418201033289492</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9470821243066325</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.002698521908428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.746680395334408</v>
+        <v>0.6580676960576284</v>
       </c>
       <c r="C6">
-        <v>0.7702410766613355</v>
+        <v>0.2837128159474958</v>
       </c>
       <c r="D6">
-        <v>0.03021722369252444</v>
+        <v>0.08048569861774979</v>
       </c>
       <c r="E6">
-        <v>1.056666997811192</v>
+        <v>0.9300525819197816</v>
       </c>
       <c r="F6">
-        <v>0.3701022390443995</v>
+        <v>2.094670013015374</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1.971852361393189E-06</v>
+      </c>
+      <c r="I6">
+        <v>0.01121158331043848</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.407215436222742</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9405992569659531</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9989260400546698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.883496531570131</v>
+        <v>0.691127001927299</v>
       </c>
       <c r="C7">
-        <v>0.8052823374376317</v>
+        <v>0.2985690767073663</v>
       </c>
       <c r="D7">
-        <v>0.03148318638439918</v>
+        <v>0.08160347241011934</v>
       </c>
       <c r="E7">
-        <v>1.114306975358431</v>
+        <v>0.9778062996390702</v>
       </c>
       <c r="F7">
-        <v>0.3824486735509538</v>
+        <v>2.162812272307733</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>1.878493375384593E-05</v>
+      </c>
+      <c r="I7">
+        <v>0.01005888439756664</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.446273928463569</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9884536380743043</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.025587161822898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.4889502763628</v>
+        <v>0.8379293870558229</v>
       </c>
       <c r="C8">
-        <v>0.9601762468160757</v>
+        <v>0.3638254239027106</v>
       </c>
       <c r="D8">
-        <v>0.0370867575780025</v>
+        <v>0.0868884319901575</v>
       </c>
       <c r="E8">
-        <v>1.373991404029766</v>
+        <v>1.190069574108691</v>
       </c>
       <c r="F8">
-        <v>0.4406830789456819</v>
+        <v>2.476668449899009</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0008355133845876495</v>
+      </c>
+      <c r="I8">
+        <v>0.005728018294957948</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.628236857852301</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.200107905888132</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.155908789986228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.687372499497542</v>
+        <v>1.128895373238265</v>
       </c>
       <c r="C9">
-        <v>1.266022097150994</v>
+        <v>0.4942267295646161</v>
       </c>
       <c r="D9">
-        <v>0.04818550004039679</v>
+        <v>0.09745724581777182</v>
       </c>
       <c r="E9">
-        <v>1.910101905316466</v>
+        <v>1.61389391537034</v>
       </c>
       <c r="F9">
-        <v>0.5712390427095642</v>
+        <v>3.118361531652766</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.005540262262105689</v>
+      </c>
+      <c r="I9">
+        <v>0.001134339109386318</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.001806142330125</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.620286754158229</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.466485400245119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.580062994807008</v>
+        <v>1.346309137508996</v>
       </c>
       <c r="C10">
-        <v>1.493274756660185</v>
+        <v>0.5880163482669047</v>
       </c>
       <c r="D10">
-        <v>0.05646241210065028</v>
+        <v>0.1009620047592925</v>
       </c>
       <c r="E10">
-        <v>2.328942523170113</v>
+        <v>1.832783707952373</v>
       </c>
       <c r="F10">
-        <v>0.6801860287837656</v>
+        <v>3.506914270305373</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.01086475288322397</v>
+      </c>
+      <c r="I10">
+        <v>0.001027877000558064</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.213511595252953</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.930017756434864</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.738300127749142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.99020270617774</v>
+        <v>1.462739365666778</v>
       </c>
       <c r="C11">
-        <v>1.597536429604133</v>
+        <v>0.5738006621122906</v>
       </c>
       <c r="D11">
-        <v>0.06026921519906381</v>
+        <v>0.07846396925105736</v>
       </c>
       <c r="E11">
-        <v>2.527182316141563</v>
+        <v>1.169004120079265</v>
       </c>
       <c r="F11">
-        <v>0.7333506656163138</v>
+        <v>3.011643081578853</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02748333298211136</v>
+      </c>
+      <c r="I11">
+        <v>0.001677229753189735</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.836499148656628</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.02628338679736</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.873993580230604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.146223832119233</v>
+        <v>1.517605987503856</v>
       </c>
       <c r="C12">
-        <v>1.63717529550371</v>
+        <v>0.5403914055652308</v>
       </c>
       <c r="D12">
-        <v>0.06171817412964486</v>
+        <v>0.06717163795411007</v>
       </c>
       <c r="E12">
-        <v>2.603584381246691</v>
+        <v>0.6927031613998196</v>
       </c>
       <c r="F12">
-        <v>0.7540744535712633</v>
+        <v>2.569886311819189</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06436802974074141</v>
+      </c>
+      <c r="I12">
+        <v>0.001623016134770339</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.524474819544352</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.040494998817564</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.927353549975606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.112588108583907</v>
+        <v>1.52657498899697</v>
       </c>
       <c r="C13">
-        <v>1.628630841177255</v>
+        <v>0.493062916733777</v>
       </c>
       <c r="D13">
-        <v>0.06140576057514124</v>
+        <v>0.06261323287427523</v>
       </c>
       <c r="E13">
-        <v>2.587066586312318</v>
+        <v>0.334200998597332</v>
       </c>
       <c r="F13">
-        <v>0.7495836463256325</v>
+        <v>2.122643260733327</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1183344006281999</v>
+      </c>
+      <c r="I13">
+        <v>0.001432522745696829</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.226907837556226</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.99379824092739</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.915769440902721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.003023639679157</v>
+        <v>1.511946615629085</v>
       </c>
       <c r="C14">
-        <v>1.600794205042689</v>
+        <v>0.4546409086564722</v>
       </c>
       <c r="D14">
-        <v>0.06038826459217717</v>
+        <v>0.06330936848577196</v>
       </c>
       <c r="E14">
-        <v>2.53343983225723</v>
+        <v>0.155126660799624</v>
       </c>
       <c r="F14">
-        <v>0.7350433185091987</v>
+        <v>1.811007412913554</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1665422359416766</v>
+      </c>
+      <c r="I14">
+        <v>0.001410296326253224</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.028359528696186</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.934316418550111</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.878342433681809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.936008769857779</v>
+        <v>1.498072007622198</v>
       </c>
       <c r="C15">
-        <v>1.583764899841924</v>
+        <v>0.4428350063186599</v>
       </c>
       <c r="D15">
-        <v>0.05976602918984497</v>
+        <v>0.06399468859979152</v>
       </c>
       <c r="E15">
-        <v>2.500772756271289</v>
+        <v>0.1204451741574601</v>
       </c>
       <c r="F15">
-        <v>0.7262163023034418</v>
+        <v>1.7262518610504</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1786755503979549</v>
+      </c>
+      <c r="I15">
+        <v>0.001530142212982533</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9765582902736725</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.907327025353709</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.855682373255036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.553351474471583</v>
+        <v>1.401499321666307</v>
       </c>
       <c r="C16">
-        <v>1.486481283388798</v>
+        <v>0.4145255015347118</v>
       </c>
       <c r="D16">
-        <v>0.05621458255117062</v>
+        <v>0.06342854695794387</v>
       </c>
       <c r="E16">
-        <v>2.316160600413454</v>
+        <v>0.1167902392037341</v>
       </c>
       <c r="F16">
-        <v>0.6767901812289097</v>
+        <v>1.656235900477483</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1645968289183486</v>
+      </c>
+      <c r="I16">
+        <v>0.001837263258586574</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9496046651147765</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.785335301385913</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.72969477305071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.319727173906585</v>
+        <v>1.335346186400074</v>
       </c>
       <c r="C17">
-        <v>1.427047512301669</v>
+        <v>0.4129938635720123</v>
       </c>
       <c r="D17">
-        <v>0.05404748730052233</v>
+        <v>0.06193336988638087</v>
       </c>
       <c r="E17">
-        <v>2.205030298274977</v>
+        <v>0.1950096177591476</v>
       </c>
       <c r="F17">
-        <v>0.6474413772912015</v>
+        <v>1.762152398149752</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1263146546796179</v>
+      </c>
+      <c r="I17">
+        <v>0.002122855666744528</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.029535405612911</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.723363288226068</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655654577717996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.185725402171613</v>
+        <v>1.288718757512527</v>
       </c>
       <c r="C18">
-        <v>1.392943901908097</v>
+        <v>0.4336162011792339</v>
       </c>
       <c r="D18">
-        <v>0.05280484970182897</v>
+        <v>0.0629574006329201</v>
       </c>
       <c r="E18">
-        <v>2.141821199478073</v>
+        <v>0.4144769596665085</v>
       </c>
       <c r="F18">
-        <v>0.630895093239161</v>
+        <v>2.0585431959543</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07378366986531404</v>
+      </c>
+      <c r="I18">
+        <v>0.001915946925523215</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.233439881245076</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.704858934179526</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.614185979594282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.14041507690564</v>
+        <v>1.260299952300301</v>
       </c>
       <c r="C19">
-        <v>1.381410077713554</v>
+        <v>0.4745546379264738</v>
       </c>
       <c r="D19">
-        <v>0.05238472970519581</v>
+        <v>0.070964896330727</v>
       </c>
       <c r="E19">
-        <v>2.120535350376599</v>
+        <v>0.8281214661823668</v>
       </c>
       <c r="F19">
-        <v>0.625348142486331</v>
+        <v>2.495616114670526</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02991063947641237</v>
+      </c>
+      <c r="I19">
+        <v>0.001845542875966721</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.532349091740684</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.724813846530111</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.600330373230292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.34455742478508</v>
+        <v>1.286669197746903</v>
       </c>
       <c r="C20">
-        <v>1.433365735797963</v>
+        <v>0.5676198729041744</v>
       </c>
       <c r="D20">
-        <v>0.05427777345895635</v>
+        <v>0.09792225524947185</v>
       </c>
       <c r="E20">
-        <v>2.216785296334024</v>
+        <v>1.770502456747593</v>
       </c>
       <c r="F20">
-        <v>0.6505304985081892</v>
+        <v>3.355557283073665</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.009235074967857138</v>
+      </c>
+      <c r="I20">
+        <v>0.001608102680879853</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.118846282813323</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.850681792425178</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663418966590456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.035185013054445</v>
+        <v>1.451814008911185</v>
       </c>
       <c r="C21">
-        <v>1.608965972733415</v>
+        <v>0.6511072751050619</v>
       </c>
       <c r="D21">
-        <v>0.06068691444040297</v>
+        <v>0.105953795191148</v>
       </c>
       <c r="E21">
-        <v>2.549153166963947</v>
+        <v>2.094390641130104</v>
       </c>
       <c r="F21">
-        <v>0.7392974844044744</v>
+        <v>3.785369927080666</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.01486535451698856</v>
+      </c>
+      <c r="I21">
+        <v>0.002524645665889835</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.374262094515572</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.098674557829128</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.889279935424554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.490760030649597</v>
+        <v>1.562539185977982</v>
       </c>
       <c r="C22">
-        <v>1.724664246468421</v>
+        <v>0.70123957232056</v>
       </c>
       <c r="D22">
-        <v>0.0649196434990742</v>
+        <v>0.1103093617062569</v>
       </c>
       <c r="E22">
-        <v>2.774275462990616</v>
+        <v>2.257872051766043</v>
       </c>
       <c r="F22">
-        <v>0.8008001998274494</v>
+        <v>4.047605303828334</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.01891649319101374</v>
+      </c>
+      <c r="I22">
+        <v>0.003596120287406634</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.529053744721935</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.258725259882198</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.048545632740371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.247179511589479</v>
+        <v>1.504325736869816</v>
       </c>
       <c r="C23">
-        <v>1.662817484722552</v>
+        <v>0.6725305044162724</v>
       </c>
       <c r="D23">
-        <v>0.06265600365713198</v>
+        <v>0.1087852347481615</v>
       </c>
       <c r="E23">
-        <v>2.653316705848027</v>
+        <v>2.170573026654409</v>
       </c>
       <c r="F23">
-        <v>0.767629265527745</v>
+        <v>3.925111338337899</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.01671917824147284</v>
+      </c>
+      <c r="I23">
+        <v>0.00267149701173075</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.46058237844764</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.172133395364597</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.962387568851085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.333330706156858</v>
+        <v>1.283817317610414</v>
       </c>
       <c r="C24">
-        <v>1.430509064684031</v>
+        <v>0.5689950793723426</v>
       </c>
       <c r="D24">
-        <v>0.05417365105487448</v>
+        <v>0.1015698914847931</v>
       </c>
       <c r="E24">
-        <v>2.211468756447317</v>
+        <v>1.843713642886073</v>
       </c>
       <c r="F24">
-        <v>0.6491328945230634</v>
+        <v>3.436761723572829</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.009517445985743764</v>
+      </c>
+      <c r="I24">
+        <v>0.001125561157810928</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.179691982118371</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.849370061844155</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659905284108874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.361450325056296</v>
+        <v>1.048508685483597</v>
       </c>
       <c r="C25">
-        <v>1.182935475828856</v>
+        <v>0.4610709737239631</v>
       </c>
       <c r="D25">
-        <v>0.04516592618356441</v>
+        <v>0.09349987293350637</v>
       </c>
       <c r="E25">
-        <v>1.761375679677428</v>
+        <v>1.498058372458402</v>
       </c>
       <c r="F25">
-        <v>0.5338722426101228</v>
+        <v>2.917842004838576</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.003877743975365222</v>
+      </c>
+      <c r="I25">
+        <v>0.002319050292402203</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.879623730104484</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.507269411158831</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.375597415449619</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.878844159267345</v>
+        <v>0.8496955182844772</v>
       </c>
       <c r="C2">
-        <v>0.3796691122029756</v>
+        <v>0.4698297315649427</v>
       </c>
       <c r="D2">
-        <v>0.0891921156100608</v>
+        <v>0.05739637580505441</v>
       </c>
       <c r="E2">
-        <v>1.248118025012346</v>
+        <v>1.253439209907015</v>
       </c>
       <c r="F2">
-        <v>2.582290850069811</v>
+        <v>1.795364455931889</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001258035826641191</v>
+        <v>0.001617608876284038</v>
       </c>
       <c r="I2">
-        <v>0.004466212393107405</v>
+        <v>0.002812491178020515</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.693855896659983</v>
+        <v>1.062839947583967</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4464977188251069</v>
       </c>
       <c r="M2">
-        <v>1.256605514292744</v>
+        <v>0.3540421335533281</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.318053402647308</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7631442712940668</v>
+        <v>0.7400020775824885</v>
       </c>
       <c r="C3">
-        <v>0.3282403248422554</v>
+        <v>0.4048252363539859</v>
       </c>
       <c r="D3">
-        <v>0.08498815840650309</v>
+        <v>0.05649060249852855</v>
       </c>
       <c r="E3">
-        <v>1.080556057403825</v>
+        <v>1.08606731417872</v>
       </c>
       <c r="F3">
-        <v>2.332099114998869</v>
+        <v>1.652961140346747</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002719868381046986</v>
+        <v>0.0004929109310611857</v>
       </c>
       <c r="I3">
-        <v>0.007423035026910441</v>
+        <v>0.004744952811939651</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.548463830587082</v>
+        <v>1.000073502021564</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4329644074628547</v>
       </c>
       <c r="M3">
-        <v>1.089840583701687</v>
+        <v>0.3215914324254285</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.143067641798694</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6922445745592256</v>
+        <v>0.6726112358520027</v>
       </c>
       <c r="C4">
-        <v>0.2972214101593522</v>
+        <v>0.3655973759246933</v>
       </c>
       <c r="D4">
-        <v>0.08228198646884621</v>
+        <v>0.05585702252008762</v>
       </c>
       <c r="E4">
-        <v>0.9784271704663894</v>
+        <v>0.9839016707672528</v>
       </c>
       <c r="F4">
-        <v>2.17825919861896</v>
+        <v>1.565072599342727</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.002353454422234E-05</v>
+        <v>0.0001161922401382576</v>
       </c>
       <c r="I4">
-        <v>0.009740451784958637</v>
+        <v>0.006312255476434991</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.458532610680962</v>
+        <v>0.9608261180502495</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.423988264710502</v>
       </c>
       <c r="M4">
-        <v>0.9881240574465266</v>
+        <v>0.3023573740568608</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.036166716124768</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6631597293808795</v>
+        <v>0.6449531936175674</v>
       </c>
       <c r="C5">
-        <v>0.2851568130352575</v>
+        <v>0.3501794608356192</v>
       </c>
       <c r="D5">
-        <v>0.08094975971080487</v>
+        <v>0.05551325019606601</v>
       </c>
       <c r="E5">
-        <v>0.9369516873688752</v>
+        <v>0.9423781499656343</v>
       </c>
       <c r="F5">
-        <v>2.111132933709513</v>
+        <v>1.526186550360734</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.903905826912023E-07</v>
+        <v>3.616566623820816E-05</v>
       </c>
       <c r="I5">
-        <v>0.01089458415744193</v>
+        <v>0.007139965633522039</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.418201033289492</v>
+        <v>0.942451904655357</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4192538903674006</v>
       </c>
       <c r="M5">
-        <v>0.9470821243066325</v>
+        <v>0.2939512846699088</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.992937392932447</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6580676960576284</v>
+        <v>0.6401420762038583</v>
       </c>
       <c r="C6">
-        <v>0.2837128159474958</v>
+        <v>0.348133093131878</v>
       </c>
       <c r="D6">
-        <v>0.08048569861774979</v>
+        <v>0.05537497934611491</v>
       </c>
       <c r="E6">
-        <v>0.9300525819197816</v>
+        <v>0.9354709810187813</v>
       </c>
       <c r="F6">
-        <v>2.094670013015374</v>
+        <v>1.516133705281788</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.971852361393189E-06</v>
+        <v>2.69828389192206E-05</v>
       </c>
       <c r="I6">
-        <v>0.01121158331043848</v>
+        <v>0.007412044738576817</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.407215436222742</v>
+        <v>0.9367093910702522</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4173503396684453</v>
       </c>
       <c r="M6">
-        <v>0.9405992569659531</v>
+        <v>0.2916653334575159</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9860349623247089</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.691127001927299</v>
+        <v>0.6716417953330733</v>
       </c>
       <c r="C7">
-        <v>0.2985690767073663</v>
+        <v>0.3667719466636754</v>
       </c>
       <c r="D7">
-        <v>0.08160347241011934</v>
+        <v>0.05563730654372101</v>
       </c>
       <c r="E7">
-        <v>0.9778062996390702</v>
+        <v>0.9832865991871955</v>
       </c>
       <c r="F7">
-        <v>2.162812272307733</v>
+        <v>1.554758087922352</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.878493375384593E-05</v>
+        <v>0.0001135298710668309</v>
       </c>
       <c r="I7">
-        <v>0.01005888439756664</v>
+        <v>0.006654782534683434</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.446273928463569</v>
+        <v>0.9532711693706659</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4209429250151402</v>
       </c>
       <c r="M7">
-        <v>0.9884536380743043</v>
+        <v>0.2997512940268479</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.036318631382073</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8379293870558229</v>
+        <v>0.811071675409238</v>
       </c>
       <c r="C8">
-        <v>0.3638254239027106</v>
+        <v>0.4491144396097013</v>
       </c>
       <c r="D8">
-        <v>0.0868884319901575</v>
+        <v>0.05683329560746309</v>
       </c>
       <c r="E8">
-        <v>1.190069574108691</v>
+        <v>1.19550459223116</v>
       </c>
       <c r="F8">
-        <v>2.476668449899009</v>
+        <v>1.733433766917841</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0008355133845876495</v>
+        <v>0.001156236343026418</v>
       </c>
       <c r="I8">
-        <v>0.005728018294957948</v>
+        <v>0.003786734597969854</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.628236857852301</v>
+        <v>1.031741912518306</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4382033089607802</v>
       </c>
       <c r="M8">
-        <v>1.200107905888132</v>
+        <v>0.3392784442129297</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.258560790192917</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.128895373238265</v>
+        <v>1.085710323093139</v>
       </c>
       <c r="C9">
-        <v>0.4942267295646161</v>
+        <v>0.6143091162185215</v>
       </c>
       <c r="D9">
-        <v>0.09745724581777182</v>
+        <v>0.05891140422522501</v>
       </c>
       <c r="E9">
-        <v>1.61389391537034</v>
+        <v>1.617804082417052</v>
       </c>
       <c r="F9">
-        <v>3.118361531652766</v>
+        <v>2.09871037882364</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.005540262262105689</v>
+        <v>0.005950741055865016</v>
       </c>
       <c r="I9">
-        <v>0.001134339109386318</v>
+        <v>0.0009489903369690467</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.001806142330125</v>
+        <v>1.193307274572376</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4718295123107055</v>
       </c>
       <c r="M9">
-        <v>1.620286754158229</v>
+        <v>0.427233626619909</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.698463063382718</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.346309137508996</v>
+        <v>1.290811851032117</v>
       </c>
       <c r="C10">
-        <v>0.5880163482669047</v>
+        <v>0.7314085620944581</v>
       </c>
       <c r="D10">
-        <v>0.1009620047592925</v>
+        <v>0.059312560344154</v>
       </c>
       <c r="E10">
-        <v>1.832783707952373</v>
+        <v>1.834536236474122</v>
       </c>
       <c r="F10">
-        <v>3.506914270305373</v>
+        <v>2.314453568751674</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01086475288322397</v>
+        <v>0.01108496720419705</v>
       </c>
       <c r="I10">
-        <v>0.001027877000558064</v>
+        <v>0.001354547354429414</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.213511595252953</v>
+        <v>1.276163015677355</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4815261628101979</v>
       </c>
       <c r="M10">
-        <v>1.930017756434864</v>
+        <v>0.4827226150731505</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.020384259382013</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.462739365666778</v>
+        <v>1.40962254656614</v>
       </c>
       <c r="C11">
-        <v>0.5738006621122906</v>
+        <v>0.7027227853405122</v>
       </c>
       <c r="D11">
-        <v>0.07846396925105736</v>
+        <v>0.05738174994013256</v>
       </c>
       <c r="E11">
-        <v>1.169004120079265</v>
+        <v>1.170509023765007</v>
       </c>
       <c r="F11">
-        <v>3.011643081578853</v>
+        <v>1.999372773608044</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02748333298211136</v>
+        <v>0.02770891021325639</v>
       </c>
       <c r="I11">
-        <v>0.001677229753189735</v>
+        <v>0.002158688397775776</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.836499148656628</v>
+        <v>1.059934617605911</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3961339033446762</v>
       </c>
       <c r="M11">
-        <v>2.02628338679736</v>
+        <v>0.4074155986800463</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.11181748959001</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.517605987503856</v>
+        <v>1.469142541809418</v>
       </c>
       <c r="C12">
-        <v>0.5403914055652308</v>
+        <v>0.6529990754305572</v>
       </c>
       <c r="D12">
-        <v>0.06717163795411007</v>
+        <v>0.06054394469664715</v>
       </c>
       <c r="E12">
-        <v>0.6927031613998196</v>
+        <v>0.6941361006565927</v>
       </c>
       <c r="F12">
-        <v>2.569886311819189</v>
+        <v>1.722937147004586</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06436802974074141</v>
+        <v>0.06462983172578163</v>
       </c>
       <c r="I12">
-        <v>0.001623016134770339</v>
+        <v>0.002116791946328966</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.524474819544352</v>
+        <v>0.8884368365088307</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3333960520182444</v>
       </c>
       <c r="M12">
-        <v>2.040494998817564</v>
+        <v>0.3420178060800225</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.119361574396663</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.52657498899697</v>
+        <v>1.484936854312053</v>
       </c>
       <c r="C13">
-        <v>0.493062916733777</v>
+        <v>0.586968936506338</v>
       </c>
       <c r="D13">
-        <v>0.06261323287427523</v>
+        <v>0.06713527470177283</v>
       </c>
       <c r="E13">
-        <v>0.334200998597332</v>
+        <v>0.3354946545686417</v>
       </c>
       <c r="F13">
-        <v>2.122643260733327</v>
+        <v>1.445182004214757</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1183344006281999</v>
+        <v>0.1186430499279254</v>
       </c>
       <c r="I13">
-        <v>0.001432522745696829</v>
+        <v>0.001875055832364581</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.226907837556226</v>
+        <v>0.7297714713362637</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2789322209533935</v>
       </c>
       <c r="M13">
-        <v>1.99379824092739</v>
+        <v>0.2771083838713224</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.063992908173049</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.511946615629085</v>
+        <v>1.476037610772465</v>
       </c>
       <c r="C14">
-        <v>0.4546409086564722</v>
+        <v>0.5345966347865669</v>
       </c>
       <c r="D14">
-        <v>0.06330936848577196</v>
+        <v>0.07374800418981664</v>
       </c>
       <c r="E14">
-        <v>0.155126660799624</v>
+        <v>0.1561907541396721</v>
       </c>
       <c r="F14">
-        <v>1.811007412913554</v>
+        <v>1.251667541438295</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1665422359416766</v>
+        <v>0.1668780794087752</v>
       </c>
       <c r="I14">
-        <v>0.001410296326253224</v>
+        <v>0.001775086756275357</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.028359528696186</v>
+        <v>0.6255568818693504</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2443860726423424</v>
       </c>
       <c r="M14">
-        <v>1.934316418550111</v>
+        <v>0.2328764322767185</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.997467706169346</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.498072007622198</v>
+        <v>1.464021884251252</v>
       </c>
       <c r="C15">
-        <v>0.4428350063186599</v>
+        <v>0.5187895001047025</v>
       </c>
       <c r="D15">
-        <v>0.06399468859979152</v>
+        <v>0.07556712332927162</v>
       </c>
       <c r="E15">
-        <v>0.1204451741574601</v>
+        <v>0.1214427542048746</v>
       </c>
       <c r="F15">
-        <v>1.7262518610504</v>
+        <v>1.199348317389919</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1786755503979549</v>
+        <v>0.1790180160917885</v>
       </c>
       <c r="I15">
-        <v>0.001530142212982533</v>
+        <v>0.001870723024377519</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.9765582902736725</v>
+        <v>0.5990526411743247</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2360302065761708</v>
       </c>
       <c r="M15">
-        <v>1.907327025353709</v>
+        <v>0.221028145253463</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.968313871063231</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.401499321666307</v>
+        <v>1.371160036502459</v>
       </c>
       <c r="C16">
-        <v>0.4145255015347118</v>
+        <v>0.4848260319051292</v>
       </c>
       <c r="D16">
-        <v>0.06342854695794387</v>
+        <v>0.07329587566403717</v>
       </c>
       <c r="E16">
-        <v>0.1167902392037341</v>
+        <v>0.1178856485097768</v>
       </c>
       <c r="F16">
-        <v>1.656235900477483</v>
+        <v>1.162566184116429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1645968289183486</v>
+        <v>0.1649386106136319</v>
       </c>
       <c r="I16">
-        <v>0.001837263258586574</v>
+        <v>0.001942711782358053</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.9496046651147765</v>
+        <v>0.5937022454134748</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2386138140806082</v>
       </c>
       <c r="M16">
-        <v>1.785335301385913</v>
+        <v>0.2128260229017656</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.842860440733944</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.335346186400074</v>
+        <v>1.304837707974514</v>
       </c>
       <c r="C17">
-        <v>0.4129938635720123</v>
+        <v>0.4861869518274204</v>
       </c>
       <c r="D17">
-        <v>0.06193336988638087</v>
+        <v>0.06780947672877957</v>
       </c>
       <c r="E17">
-        <v>0.1950096177591476</v>
+        <v>0.1964478425968963</v>
       </c>
       <c r="F17">
-        <v>1.762152398149752</v>
+        <v>1.234480934470852</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1263146546796179</v>
+        <v>0.1266483383302841</v>
       </c>
       <c r="I17">
-        <v>0.002122855666744528</v>
+        <v>0.002094214668122873</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.029535405612911</v>
+        <v>0.6430715825555637</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2590276109916481</v>
       </c>
       <c r="M17">
-        <v>1.723363288226068</v>
+        <v>0.2286205544427489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.781966445229727</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.288718757512527</v>
+        <v>1.254721409014849</v>
       </c>
       <c r="C18">
-        <v>0.4336162011792339</v>
+        <v>0.5178682093460623</v>
       </c>
       <c r="D18">
-        <v>0.0629574006329201</v>
+        <v>0.06087919981997558</v>
       </c>
       <c r="E18">
-        <v>0.4144769596665085</v>
+        <v>0.4165518627030949</v>
       </c>
       <c r="F18">
-        <v>2.0585431959543</v>
+        <v>1.424673340239607</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07378366986531404</v>
+        <v>0.07412539750463765</v>
       </c>
       <c r="I18">
-        <v>0.001915946925523215</v>
+        <v>0.00184006256548841</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.233439881245076</v>
+        <v>0.7581096731972892</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3023594908142684</v>
       </c>
       <c r="M18">
-        <v>1.704858934179526</v>
+        <v>0.2711943322092765</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.768681064765758</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.260299952300301</v>
+        <v>1.220737562505263</v>
       </c>
       <c r="C19">
-        <v>0.4745546379264738</v>
+        <v>0.5761425328124403</v>
       </c>
       <c r="D19">
-        <v>0.070964896330727</v>
+        <v>0.05669819589346226</v>
       </c>
       <c r="E19">
-        <v>0.8281214661823668</v>
+        <v>0.8308689721207969</v>
       </c>
       <c r="F19">
-        <v>2.495616114670526</v>
+        <v>1.699055722082974</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02991063947641237</v>
+        <v>0.03027376963738249</v>
       </c>
       <c r="I19">
-        <v>0.001845542875966721</v>
+        <v>0.001914624745378291</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.532349091740684</v>
+        <v>0.9216046400219682</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3624836049580935</v>
       </c>
       <c r="M19">
-        <v>1.724813846530111</v>
+        <v>0.3336913446964829</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.796439183182798</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.286669197746903</v>
+        <v>1.235019665169318</v>
       </c>
       <c r="C20">
-        <v>0.5676198729041744</v>
+        <v>0.7043564932874347</v>
       </c>
       <c r="D20">
-        <v>0.09792225524947185</v>
+        <v>0.05870318719587875</v>
       </c>
       <c r="E20">
-        <v>1.770502456747593</v>
+        <v>1.772963035164992</v>
       </c>
       <c r="F20">
-        <v>3.355557283073665</v>
+        <v>2.225821191003618</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.009235074967857138</v>
+        <v>0.009532300457743226</v>
       </c>
       <c r="I20">
-        <v>0.001608102680879853</v>
+        <v>0.002008553381402933</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.118846282813323</v>
+        <v>1.231318818953397</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4707385908561577</v>
       </c>
       <c r="M20">
-        <v>1.850681792425178</v>
+        <v>0.4588758770951955</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.937466758858534</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.451814008911185</v>
+        <v>1.388743547638853</v>
       </c>
       <c r="C21">
-        <v>0.6511072751050619</v>
+        <v>0.8106111874654403</v>
       </c>
       <c r="D21">
-        <v>0.105953795191148</v>
+        <v>0.06001571349583523</v>
       </c>
       <c r="E21">
-        <v>2.094390641130104</v>
+        <v>2.09456918079276</v>
       </c>
       <c r="F21">
-        <v>3.785369927080666</v>
+        <v>2.472235005629287</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01486535451698856</v>
+        <v>0.01488893402132274</v>
       </c>
       <c r="I21">
-        <v>0.002524645665889835</v>
+        <v>0.003007042973803387</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.374262094515572</v>
+        <v>1.344809751556525</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4956757364307265</v>
       </c>
       <c r="M21">
-        <v>2.098674557829128</v>
+        <v>0.5223935141502096</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.196193728306838</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.562539185977982</v>
+        <v>1.491894801437553</v>
       </c>
       <c r="C22">
-        <v>0.70123957232056</v>
+        <v>0.8744425267752263</v>
       </c>
       <c r="D22">
-        <v>0.1103093617062569</v>
+        <v>0.06068343698986212</v>
       </c>
       <c r="E22">
-        <v>2.257872051766043</v>
+        <v>2.25623334087561</v>
       </c>
       <c r="F22">
-        <v>4.047605303828334</v>
+        <v>2.622087495283864</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01891649319101374</v>
+        <v>0.01868970961524274</v>
       </c>
       <c r="I22">
-        <v>0.003596120287406634</v>
+        <v>0.003855579069480086</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.529053744721935</v>
+        <v>1.412849179874286</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5091758132689179</v>
       </c>
       <c r="M22">
-        <v>2.258725259882198</v>
+        <v>0.5626281905822239</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.362525900222863</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.504325736869816</v>
+        <v>1.437564193026986</v>
       </c>
       <c r="C23">
-        <v>0.6725305044162724</v>
+        <v>0.8385431733588291</v>
       </c>
       <c r="D23">
-        <v>0.1087852347481615</v>
+        <v>0.06052213781749716</v>
       </c>
       <c r="E23">
-        <v>2.170573026654409</v>
+        <v>2.169902073766394</v>
       </c>
       <c r="F23">
-        <v>3.925111338337899</v>
+        <v>2.55342283095456</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01671917824147284</v>
+        <v>0.01662849315878456</v>
       </c>
       <c r="I23">
-        <v>0.00267149701173075</v>
+        <v>0.00300477632728402</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.46058237844764</v>
+        <v>1.384906546612839</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5049441997162916</v>
       </c>
       <c r="M23">
-        <v>2.172133395364597</v>
+        <v>0.5444164206166562</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.272765518471687</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.283817317610414</v>
+        <v>1.231365896058691</v>
       </c>
       <c r="C24">
-        <v>0.5689950793723426</v>
+        <v>0.7078952392436122</v>
       </c>
       <c r="D24">
-        <v>0.1015698914847931</v>
+        <v>0.05947736236682344</v>
       </c>
       <c r="E24">
-        <v>1.843713642886073</v>
+        <v>1.846102746380581</v>
       </c>
       <c r="F24">
-        <v>3.436761723572829</v>
+        <v>2.276966339651608</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.009517445985743764</v>
+        <v>0.009803959366028521</v>
       </c>
       <c r="I24">
-        <v>0.001125561157810928</v>
+        <v>0.001434503818542154</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.179691982118371</v>
+        <v>1.26563175231739</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4833927478237783</v>
       </c>
       <c r="M24">
-        <v>1.849370061844155</v>
+        <v>0.471961553064844</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.937114982946127</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.048508685483597</v>
+        <v>1.010209098067918</v>
       </c>
       <c r="C25">
-        <v>0.4610709737239631</v>
+        <v>0.5713998944456478</v>
       </c>
       <c r="D25">
-        <v>0.09349987293350637</v>
+        <v>0.05808659545940698</v>
       </c>
       <c r="E25">
-        <v>1.498058372458402</v>
+        <v>1.50259278298401</v>
       </c>
       <c r="F25">
-        <v>2.917842004838576</v>
+        <v>1.982469079124186</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.003877743975365222</v>
+        <v>0.004310074261823837</v>
       </c>
       <c r="I25">
-        <v>0.002319050292402203</v>
+        <v>0.001858621962029794</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.879623730104484</v>
+        <v>1.137144180550031</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4584366236346895</v>
       </c>
       <c r="M25">
-        <v>1.507269411158831</v>
+        <v>0.3979078556367597</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.580028094672855</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
